--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -24,16 +24,247 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+  <si>
+    <t xml:space="preserve">Xây dựng 1 service chuyển quản lí:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Đăng kí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Quên mật khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Xác thực tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserManagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WalletUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmnd_img_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">D://xxx/xxx/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2003000001/font.jpg;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">D://xxx/xxx/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2003000001/back.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">01/02/2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Van A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21871929121212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: chưa xác thực
+1: Đã xác thực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tất cả đều là phương thức POST và kiểu dữ liệu là JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng kí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy trình đăng kí tài khoản:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Nhập thông tin gồm: password, phone, address,dob, full name, cmnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Submit đến server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. Nhập OTP đến SDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. Gửi OTP đến server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. Check kết quả nhận từ server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f. Show màn hình kết quả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/um/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format: DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. thành công.
+&lt; 1: Thất bại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Verify OTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/um/verify-otp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng nhập sđt  và password để tiến hành đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/um/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Xác thực tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. User chọn chức năng xác thực tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Upload mặt trước và mặc sau của cmnd lên server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. Thực hiện gọi API [verify-account] để yêu cầu xác thực tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/um/verify-account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Upload file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/um/upload-image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -50,13 +281,53 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +364,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -107,6 +406,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -115,17 +474,484 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.9132653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2295918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3923283323</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" s="7" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" s="7" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" s="7" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -149,12 +975,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -175,12 +1001,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -201,12 +1027,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -227,12 +1053,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -253,12 +1079,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
-    <t xml:space="preserve">Xây dựng 1 service chuyển quản lí:</t>
+    <t xml:space="preserve">Xây dựng 1 service  quản lí người dùng:</t>
   </si>
   <si>
     <t xml:space="preserve">+ Đăng kí</t>
@@ -477,7 +477,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="user-mng" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -406,6 +406,75 @@
 5. Nước
 6. Internet
 7. Mobile Card.</t>
+  </si>
+  <si>
+    <t>Xây dựng service cho phép người dùng thực hiện liên kết thẻ, hủy liên kết thẻ, lấy danh sách thẻ đã liên kết</t>
+  </si>
+  <si>
+    <t>BankMapping</t>
+  </si>
+  <si>
+    <t>fulllname</t>
+  </si>
+  <si>
+    <t>bank_token</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>bank_code</t>
+  </si>
+  <si>
+    <t>20200300001</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN A</t>
+  </si>
+  <si>
+    <t>dnfvisdgsbgdkfjvbjdfhbv3w5983475rdkjhgfbsky5478 b38457</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>Ngân hàng hàng hải</t>
+  </si>
+  <si>
+    <t>1. Liên kết thẻ</t>
+  </si>
+  <si>
+    <t>/bank-mapping/link</t>
+  </si>
+  <si>
+    <t>cardno</t>
+  </si>
+  <si>
+    <t>2. Hủy liên kết</t>
+  </si>
+  <si>
+    <t>/bank-mapping/unlink</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>202012912012</t>
+  </si>
+  <si>
+    <t>cardid</t>
+  </si>
+  <si>
+    <t>3. Lấy danh sách thẻ liên kết</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>cardname</t>
+  </si>
+  <si>
+    <t>Mỗi phần tử của mảng có thông tin bên dưới</t>
   </si>
 </sst>
 </file>
@@ -881,7 +950,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D84"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1423,9 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1513,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>97</v>
       </c>
@@ -1805,17 +1872,328 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125"/>
+    <col min="6" max="6" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="11.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>940781</v>
+      </c>
+      <c r="E6">
+        <v>8945</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="user-mng" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="wallet" sheetId="7" r:id="rId4"/>
     <sheet name="cash-in cash-out" sheetId="4" r:id="rId5"/>
     <sheet name="money-transfer" sheetId="5" r:id="rId6"/>
-    <sheet name="dien-nuoc-internet-mobile-card" sheetId="6" r:id="rId7"/>
+    <sheet name="mobile-card" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -330,9 +330,6 @@
     <t>6. Verify Pin</t>
   </si>
   <si>
-    <t>/u,/verify-pin</t>
-  </si>
-  <si>
     <t>202003000001</t>
   </si>
   <si>
@@ -476,12 +473,173 @@
   <si>
     <t>Mỗi phần tử của mảng có thông tin bên dưới</t>
   </si>
+  <si>
+    <t>Xây dựng service có chức năng ví điện tử số của user</t>
+  </si>
+  <si>
+    <t>Zwallet</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>2020030001</t>
+  </si>
+  <si>
+    <t>3/14/2020 16:00:00</t>
+  </si>
+  <si>
+    <t>202003013131</t>
+  </si>
+  <si>
+    <t>1. addcash</t>
+  </si>
+  <si>
+    <t>/wallet/add-cash</t>
+  </si>
+  <si>
+    <t>2. subtractcash</t>
+  </si>
+  <si>
+    <t>/wallet/subtract-cash</t>
+  </si>
+  <si>
+    <t>3. event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu có bất cứ sự thay đổi nào số tiền trong ví của user sẽ tiến hành notify cho người dùng để update lại số tiền hiển thị người dùng  </t>
+  </si>
+  <si>
+    <t>7. Send OTP</t>
+  </si>
+  <si>
+    <t>/um/verify-pin</t>
+  </si>
+  <si>
+    <t>1. thành công.
+2. Nhập OTP
+&lt; 1: Thất bại</t>
+  </si>
+  <si>
+    <t>Socket with Pub-sub patten</t>
+  </si>
+  <si>
+    <t>Chanel name</t>
+  </si>
+  <si>
+    <t>UPDATE_WALLET</t>
+  </si>
+  <si>
+    <t>Send data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng hệ thống cho phép người dùng cash-in/ cash-out </t>
+  </si>
+  <si>
+    <t>BankConfig</t>
+  </si>
+  <si>
+    <t>withdraw_min</t>
+  </si>
+  <si>
+    <t>withdraw_max</t>
+  </si>
+  <si>
+    <t>topup_min</t>
+  </si>
+  <si>
+    <t>topup_max</t>
+  </si>
+  <si>
+    <t>/withdraw/create-order</t>
+  </si>
+  <si>
+    <t>2 Get withdraw status.</t>
+  </si>
+  <si>
+    <t>/withdraw/order-status</t>
+  </si>
+  <si>
+    <t>1. thành công.
+&lt; 1: Thất bại
+&gt; 1: Đang xử lí</t>
+  </si>
+  <si>
+    <t>1. Create order withdraw</t>
+  </si>
+  <si>
+    <t>3. Create order topup</t>
+  </si>
+  <si>
+    <t>/wallet-topup/create-order</t>
+  </si>
+  <si>
+    <t>/wallet-topup/order-status</t>
+  </si>
+  <si>
+    <t>4 Get topup status</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống cho phép người dùng chuyển tiền lẫn nhau</t>
+  </si>
+  <si>
+    <t>1. Create Order</t>
+  </si>
+  <si>
+    <t>/p2p-transfer/create-order</t>
+  </si>
+  <si>
+    <t>receiverid</t>
+  </si>
+  <si>
+    <t>2 Get status.</t>
+  </si>
+  <si>
+    <t>Xây dưng hệ thống cho phép user mua card điện thoại</t>
+  </si>
+  <si>
+    <t>MobileCard</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>seri_number</t>
+  </si>
+  <si>
+    <t>card_type</t>
+  </si>
+  <si>
+    <t>9054708000000</t>
+  </si>
+  <si>
+    <t>3984273942734234</t>
+  </si>
+  <si>
+    <t>VINA</t>
+  </si>
+  <si>
+    <t>202030323923223</t>
+  </si>
+  <si>
+    <t>1. Chưa bán
+2. Đã bán</t>
+  </si>
+  <si>
+    <t>/mobile-card/create-order</t>
+  </si>
+  <si>
+    <t>/mobile-card/order-status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -528,8 +686,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +711,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -561,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,6 +747,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,11 +1119,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1431,7 +1601,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1440,7 +1610,7 @@
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,6 +1645,54 @@
         <v>45</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1492,7 +1710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1551,24 +1771,24 @@
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>200000</v>
@@ -1582,13 +1802,13 @@
     </row>
     <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="H9" t="s">
-        <v>98</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,7 +1916,7 @@
         <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1927,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,7 +1935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>44</v>
       </c>
@@ -1723,17 +1943,17 @@
         <v>45</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,7 +1961,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,24 +1985,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,18 +2023,18 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -1838,7 +2058,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -1854,7 +2074,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
@@ -1874,9 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1893,7 +2111,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1903,7 +2121,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>78</v>
@@ -1920,24 +2138,24 @@
         <v>79</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
       </c>
       <c r="D6">
         <v>940781</v>
@@ -1946,16 +2164,16 @@
         <v>8945</v>
       </c>
       <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1965,7 +2183,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,7 +2191,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,7 +2225,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2047,7 +2265,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,7 +2278,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,7 +2304,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -2110,7 +2328,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,18 +2360,18 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -2169,7 +2387,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -2203,29 +2421,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A29" sqref="A29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7">
+        <v>500000</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.33203125"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>20000000</v>
+      </c>
+      <c r="E7">
+        <v>1000000</v>
+      </c>
+      <c r="F7">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -2237,15 +2998,157 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="1025" width="11.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
@@ -2257,15 +3160,224 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="11.33203125"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="user-mng" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="190">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -592,9 +592,6 @@
     <t>/p2p-transfer/create-order</t>
   </si>
   <si>
-    <t>receiverid</t>
-  </si>
-  <si>
     <t>2 Get status.</t>
   </si>
   <si>
@@ -633,6 +630,21 @@
   </si>
   <si>
     <t>/mobile-card/order-status</t>
+  </si>
+  <si>
+    <t>file-name-format</t>
+  </si>
+  <si>
+    <t>&lt;user-id&gt;-&lt;font|back&gt;.png</t>
+  </si>
+  <si>
+    <t>receiverphone</t>
+  </si>
+  <si>
+    <t>mệnh giá</t>
+  </si>
+  <si>
+    <t>VT|VN|MB</t>
   </si>
 </sst>
 </file>
@@ -730,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,6 +762,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,6 +845,332 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532120" y="2682240"/>
+          <a:ext cx="9037320" cy="4503420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="45265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="8846820"/>
+          <a:ext cx="10058400" cy="3291840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>426720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>125821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-227" t="-13926" r="227" b="13926"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="11696700"/>
+          <a:ext cx="10058400" cy="5909401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="152400"/>
+          <a:ext cx="10058400" cy="6870214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>69798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6103620" y="7040880"/>
+          <a:ext cx="10058400" cy="6775398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806440" y="167640"/>
+          <a:ext cx="10058400" cy="6586310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322820" y="449580"/>
+          <a:ext cx="8968740" cy="5920740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,9 +1460,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1160,6 +1506,14 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1582,6 +1936,14 @@
       </c>
       <c r="C80" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,6 +2065,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1710,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1820,7 +2183,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1947,7 +2310,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2092,9 +2455,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2125,7 +2493,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2151,19 +2519,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="13">
         <v>940781</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>8945</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G6" t="s">
@@ -2421,11 +2789,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2511,138 +2877,122 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A20" s="10" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>39</v>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" t="s">
-        <v>152</v>
+      <c r="C37" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B38" t="s">
         <v>136</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C38" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2654,10 +3004,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D29"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2679,24 +3032,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2866,89 +3219,33 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
@@ -2956,33 +3253,89 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>75</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="55" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>44</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2993,47 +3346,59 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="1025" width="11.33203125"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -3044,7 +3409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3052,15 +3417,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -3068,12 +3433,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
@@ -3084,7 +3449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -3092,12 +3457,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3155,15 +3520,19 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3178,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,18 +3557,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>66</v>
@@ -3212,19 +3581,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6">
@@ -3233,7 +3602,7 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3251,7 +3620,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3275,71 +3644,77 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>173</v>
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -3347,33 +3722,25 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3384,5 +3751,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="190">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -225,33 +225,6 @@
     <t>/um/login</t>
   </si>
   <si>
-    <t>4. Xác thực tài khoản</t>
-  </si>
-  <si>
-    <t>a. User chọn chức năng xác thực tài khoản</t>
-  </si>
-  <si>
-    <t>b. Upload mặt trước và mặc sau của cmnd lên server</t>
-  </si>
-  <si>
-    <t>c. Thực hiện gọi API [verify-account] để yêu cầu xác thực tài khoản</t>
-  </si>
-  <si>
-    <t>/um/verify-account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Upload file </t>
-  </si>
-  <si>
-    <t>/um/upload-image</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
     <t>Xây dựng service cho phép người dùng thực hiện thanh toán đơn hàng</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
   </si>
   <si>
     <t>pin</t>
-  </si>
-  <si>
-    <t>6. Verify Pin</t>
   </si>
   <si>
     <t>202003000001</t>
@@ -513,9 +483,6 @@
     <t xml:space="preserve">Nếu có bất cứ sự thay đổi nào số tiền trong ví của user sẽ tiến hành notify cho người dùng để update lại số tiền hiển thị người dùng  </t>
   </si>
   <si>
-    <t>7. Send OTP</t>
-  </si>
-  <si>
     <t>/um/verify-pin</t>
   </si>
   <si>
@@ -632,12 +599,6 @@
     <t>/mobile-card/order-status</t>
   </si>
   <si>
-    <t>file-name-format</t>
-  </si>
-  <si>
-    <t>&lt;user-id&gt;-&lt;font|back&gt;.png</t>
-  </si>
-  <si>
     <t>receiverphone</t>
   </si>
   <si>
@@ -645,6 +606,45 @@
   </si>
   <si>
     <t>VT|VN|MB</t>
+  </si>
+  <si>
+    <t>4. Verify Pin</t>
+  </si>
+  <si>
+    <t>5. Send OTP</t>
+  </si>
+  <si>
+    <t>6. Update tài khoản</t>
+  </si>
+  <si>
+    <t>/um/update</t>
+  </si>
+  <si>
+    <t>202012121</t>
+  </si>
+  <si>
+    <t>WithdrawOrder</t>
+  </si>
+  <si>
+    <t>TopupOrder</t>
+  </si>
+  <si>
+    <t>P2POrder</t>
+  </si>
+  <si>
+    <t>0368778238</t>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+  </si>
+  <si>
+    <t>MobileCardOrder</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>091209121</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +729,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -742,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,6 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,49 +943,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>426720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>125821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="-227" t="-13926" r="227" b="13926"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5334000" y="11696700"/>
-          <a:ext cx="10058400" cy="5909401"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1032,13 +996,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>69798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1136,8 +1100,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>502920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,11 +1427,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1565,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,152 +1813,172 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="7" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>56</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
         <v>10</v>
       </c>
-      <c r="C70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>11</v>
       </c>
-      <c r="C71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>10</v>
       </c>
-      <c r="C89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>43</v>
+      <c r="C92" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -2007,54 +1989,6 @@
         <v>45</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>44</v>
-      </c>
-      <c r="C100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D100" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2093,12 +2027,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2108,50 +2042,50 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>200000</v>
@@ -2165,18 +2099,18 @@
     </row>
     <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -2184,12 +2118,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2197,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,76 +2155,76 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,17 +2240,17 @@
         <v>45</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,7 +2258,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,24 +2282,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2386,61 +2320,61 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
         <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2479,7 +2413,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,7 +2423,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2497,33 +2431,33 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D6" s="13">
         <v>940781</v>
@@ -2532,26 +2466,26 @@
         <v>8945</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,7 +2493,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2585,7 +2519,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -2593,7 +2527,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -2633,7 +2567,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2580,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,7 +2606,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -2696,7 +2630,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,18 +2662,18 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -2747,7 +2681,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -2755,7 +2689,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -2763,7 +2697,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -2771,7 +2705,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -2803,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2813,45 +2747,45 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>500000</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2859,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,10 +2811,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,7 +2838,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2912,7 +2846,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2864,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,30 +2888,30 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2924,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +2941,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B14" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3023,7 +2957,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3033,29 +2967,29 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -3071,282 +3005,342 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
+      <c r="E10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11">
+        <v>561278</v>
+      </c>
+      <c r="D11">
+        <v>4356</v>
+      </c>
+      <c r="E11">
+        <v>200000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="B14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
+      <c r="B15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>200000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
+      <c r="A16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
+      <c r="A17" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>161</v>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D36" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="62" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C62" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>163</v>
+      <c r="D62" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3355,162 +3349,190 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="1025" width="11.33203125"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>70</v>
+      <c r="A3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>170</v>
+      <c r="A4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>200000</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
+      <c r="B10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
+      <c r="A19" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>163</v>
+      <c r="D25" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3529,10 +3551,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3557,41 +3579,41 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -3602,146 +3624,190 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10">
+        <v>200000</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
+      <c r="A27" s="10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="33" spans="2:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>163</v>
+      <c r="D33" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="user-mng" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="183">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -69,9 +69,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>cmnd_img_link</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -93,46 +90,6 @@
     <t>HCM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>D://xxx/xxx/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2003000001/font.jpg;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>D://xxx/xxx/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2003000001/back.jpg</t>
-    </r>
-  </si>
-  <si>
     <t>01/02/2000</t>
   </si>
   <si>
@@ -140,10 +97,6 @@
   </si>
   <si>
     <t>21871929121212</t>
-  </si>
-  <si>
-    <t>0: chưa xác thực
-1: Đã xác thực</t>
   </si>
   <si>
     <t>Danh sách API:</t>
@@ -205,15 +158,6 @@
   <si>
     <t>1. thành công.
 &lt; 1: Thất bại</t>
-  </si>
-  <si>
-    <t>2. Verify OTP</t>
-  </si>
-  <si>
-    <t>/um/verify-otp</t>
-  </si>
-  <si>
-    <t>otp</t>
   </si>
   <si>
     <t>3. Login</t>
@@ -611,9 +555,6 @@
     <t>4. Verify Pin</t>
   </si>
   <si>
-    <t>5. Send OTP</t>
-  </si>
-  <si>
     <t>6. Update tài khoản</t>
   </si>
   <si>
@@ -651,7 +592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -675,13 +616,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -748,29 +682,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -859,25 +792,68 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="45265"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4853940" y="6423660"/>
+          <a:ext cx="10058400" cy="3291840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -890,51 +866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5532120" y="2682240"/>
-          <a:ext cx="9037320" cy="4503420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="45265"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5516880" y="8846820"/>
-          <a:ext cx="10058400" cy="3291840"/>
+          <a:off x="9174480" y="502920"/>
+          <a:ext cx="9395460" cy="5433060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -996,13 +929,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>69798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1100,8 +1033,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>502920</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1427,62 +1360,60 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5546875"/>
     <col min="2" max="2" width="21"/>
-    <col min="3" max="5" width="11.33203125"/>
-    <col min="6" max="6" width="63.88671875"/>
-    <col min="7" max="7" width="22.21875"/>
-    <col min="8" max="8" width="11.33203125"/>
-    <col min="9" max="9" width="20.33203125"/>
-    <col min="10" max="10" width="21.44140625"/>
-    <col min="11" max="1025" width="11.33203125"/>
+    <col min="3" max="6" width="11.33203125"/>
+    <col min="7" max="7" width="20.33203125"/>
+    <col min="8" max="8" width="21.44140625"/>
+    <col min="9" max="1023" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1498,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1512,503 +1443,363 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
       <c r="D12">
         <v>3923283323</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" t="s">
         <v>22</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="J12" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="G13" s="6" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
+      <c r="A30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="36" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>51</v>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>46</v>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2027,12 +1818,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,51 +1832,51 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>55</v>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>98</v>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>80</v>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>81</v>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="G8">
         <v>200000</v>
@@ -2099,282 +1890,266 @@
     </row>
     <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>62</v>
+      <c r="A13" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>138</v>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>84</v>
+      <c r="A31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>46</v>
+      <c r="D41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2392,10 +2167,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2188,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,83 +2197,83 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="12">
+        <v>940781</v>
+      </c>
+      <c r="E6" s="12">
+        <v>8945</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="13">
-        <v>940781</v>
-      </c>
-      <c r="E6" s="13">
-        <v>8945</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>118</v>
+      <c r="I6" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>112</v>
+      <c r="A9" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,209 +2281,185 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>46</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>115</v>
+      <c r="A22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
+      <c r="C34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
+      <c r="C39" t="s">
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2747,58 +2498,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>56</v>
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>128</v>
+      <c r="B7" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C7">
         <v>500000</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>130</v>
+      <c r="D7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>131</v>
+      <c r="A10" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,52 +2557,52 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>133</v>
+      <c r="A20" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,59 +2610,59 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>135</v>
+      <c r="A30" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>139</v>
+      <c r="A33" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>140</v>
+      <c r="A34" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2919,15 +2670,15 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2941,10 +2692,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C15"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2957,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,30 +2717,30 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>144</v>
+      <c r="B5" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>148</v>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -3006,29 +2757,29 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>68</v>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>181</v>
+      <c r="B11" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -3040,25 +2791,25 @@
         <v>200000</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>64</v>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>181</v>
+      <c r="B15" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -3066,271 +2817,255 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>153</v>
+      <c r="A17" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>150</v>
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
       <c r="C60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3349,10 +3084,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3365,174 +3100,158 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>186</v>
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>181</v>
+      <c r="A5" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>185</v>
+      <c r="C5" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>61</v>
+      <c r="A7" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>159</v>
+      <c r="A8" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>161</v>
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3551,10 +3270,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3569,7 +3288,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3579,43 +3298,43 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
       <c r="G6">
@@ -3623,191 +3342,175 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="F7" s="11" t="s">
-        <v>171</v>
+      <c r="F7" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>181</v>
+      <c r="B10" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="D10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>159</v>
+      <c r="A13" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>161</v>
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="182">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>2003000001</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
   </si>
   <si>
     <t>HCM</t>
@@ -835,13 +832,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -1360,10 +1357,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1373,47 +1370,47 @@
     <col min="3" max="6" width="11.33203125"/>
     <col min="7" max="7" width="20.33203125"/>
     <col min="8" max="8" width="21.44140625"/>
-    <col min="9" max="1023" width="11.33203125"/>
+    <col min="9" max="1022" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1429,12 +1426,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
@@ -1451,82 +1448,76 @@
       <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
+      <c r="C12">
+        <v>123456</v>
       </c>
       <c r="D12">
         <v>3923283323</v>
       </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>22</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="I12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
@@ -1534,29 +1525,29 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,12 +1555,12 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,60 +1568,60 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,98 +1629,98 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
         <v>41</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,34 +1744,26 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
         <v>38</v>
-      </c>
-      <c r="D66" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
       <c r="C69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
         <v>41</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D69" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1818,12 +1801,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,50 +1816,50 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>200000</v>
@@ -1890,266 +1873,266 @@
     </row>
     <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
         <v>80</v>
       </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,7 +2181,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2206,33 +2189,33 @@
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="12">
         <v>940781</v>
@@ -2241,39 +2224,39 @@
         <v>8945</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,31 +2264,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,46 +2296,46 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,106 +2343,106 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,58 +2481,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>500000</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,31 +2540,31 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,20 +2572,20 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,59 +2593,59 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
         <v>134</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,15 +2653,15 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2718,29 +2701,29 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -2757,29 +2740,29 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -2791,25 +2774,25 @@
         <v>200000</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -2817,159 +2800,159 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
       <c r="D34" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,63 +2960,63 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
         <v>41</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,31 +3024,31 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
         <v>41</v>
       </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3100,44 +3083,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3145,10 +3128,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -3157,101 +3140,101 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,41 +3281,41 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -3343,24 +3326,24 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>12</v>
@@ -3369,57 +3352,57 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3427,90 +3410,90 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="user-mng" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="cash-in cash-out" sheetId="4" r:id="rId5"/>
     <sheet name="money-transfer" sheetId="5" r:id="rId6"/>
     <sheet name="mobile-card" sheetId="6" r:id="rId7"/>
+    <sheet name="bank" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="185">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -583,6 +584,15 @@
   </si>
   <si>
     <t>091209121</t>
+  </si>
+  <si>
+    <t>4. Get balance</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>/wallet/get-balance</t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1369,8 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1792,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2457,9 +2467,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2551,117 +2563,183 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>119</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3505,4 +3583,18 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="224">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -593,6 +593,123 @@
   </si>
   <si>
     <t>/wallet/get-balance</t>
+  </si>
+  <si>
+    <t>Hỗ trợ ngân hàng MSB, VietTin, Sacombank</t>
+  </si>
+  <si>
+    <t>Xây dựng ngân hàng liên kết với ví điện tử</t>
+  </si>
+  <si>
+    <t>1 pay.</t>
+  </si>
+  <si>
+    <t>thanh toán đơn hàng</t>
+  </si>
+  <si>
+    <t>/bank-name/pay</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>31121824242342</t>
+  </si>
+  <si>
+    <t>843748374</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>BankCard</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>9407342342424</t>
+  </si>
+  <si>
+    <t>21/3/2020</t>
+  </si>
+  <si>
+    <t>WalletMapping</t>
+  </si>
+  <si>
+    <t>mapping_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekjfnienv5eu8ctfny 34987y8we7y5478 </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ATM|MASTER|VISA</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>1: Linkled, 2: unlinked</t>
+  </si>
+  <si>
+    <t>94078143434348945</t>
+  </si>
+  <si>
+    <t>banktoken</t>
+  </si>
+  <si>
+    <t>cardnumber</t>
+  </si>
+  <si>
+    <t>2. link</t>
+  </si>
+  <si>
+    <t>liết kết thẻ ngân hàng vào ví</t>
+  </si>
+  <si>
+    <t>/bank-name/link</t>
+  </si>
+  <si>
+    <t>3. un link</t>
+  </si>
+  <si>
+    <t>hủy liên kết ngân hàng khỏi ví</t>
+  </si>
+  <si>
+    <t>4. cash-in</t>
+  </si>
+  <si>
+    <t>5. cash-out</t>
+  </si>
+  <si>
+    <t>/bank-name/cash-in</t>
+  </si>
+  <si>
+    <t>/bank-name/cash-out</t>
+  </si>
+  <si>
+    <t>/bank-name/un-link</t>
   </si>
 </sst>
 </file>
@@ -689,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +829,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2160,10 +2278,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2176,25 +2294,27 @@
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="11.33203125"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
@@ -2219,8 +2339,14 @@
       <c r="I5" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
@@ -2245,18 +2371,29 @@
       <c r="I6" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2264,12 +2401,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -2285,7 +2422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>107</v>
       </c>
@@ -2293,7 +2430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -2301,7 +2438,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -2756,7 +2893,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3334,7 +3471,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3587,14 +3724,508 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>43911</v>
+      </c>
+      <c r="E15">
+        <v>98742985472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="user-mng" sheetId="1" r:id="rId1"/>
-    <sheet name="charge-order" sheetId="2" r:id="rId2"/>
-    <sheet name="bank-mapping" sheetId="3" r:id="rId3"/>
-    <sheet name="wallet" sheetId="7" r:id="rId4"/>
-    <sheet name="cash-in cash-out" sheetId="4" r:id="rId5"/>
-    <sheet name="money-transfer" sheetId="5" r:id="rId6"/>
-    <sheet name="mobile-card" sheetId="6" r:id="rId7"/>
-    <sheet name="bank" sheetId="8" r:id="rId8"/>
+    <sheet name="Overview" sheetId="9" r:id="rId1"/>
+    <sheet name="user-mng" sheetId="1" r:id="rId2"/>
+    <sheet name="charge-order" sheetId="2" r:id="rId3"/>
+    <sheet name="bank-mapping" sheetId="3" r:id="rId4"/>
+    <sheet name="wallet" sheetId="7" r:id="rId5"/>
+    <sheet name="cash-in cash-out" sheetId="4" r:id="rId6"/>
+    <sheet name="money-transfer" sheetId="5" r:id="rId7"/>
+    <sheet name="mobile-card" sheetId="6" r:id="rId8"/>
+    <sheet name="bank" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="224">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -914,6 +915,817 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="960120"/>
+          <a:ext cx="1950720" cy="1744980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Adnroid Application</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="129540"/>
+          <a:ext cx="9189720" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="952500"/>
+          <a:ext cx="2225040" cy="2087880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ZWallet Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Port: 8080</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="342900"/>
+          <a:ext cx="2316480" cy="1196340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MSB Bank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Port:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 8081</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9250680" y="1798320"/>
+          <a:ext cx="2263140" cy="1386840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>VietTin Bank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>port: 8082</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="3444240"/>
+          <a:ext cx="2308860" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sacombank bank</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>port: 8083</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="5280660"/>
+          <a:ext cx="2232660" cy="1325880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Port: 3036</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319260" y="5082540"/>
+          <a:ext cx="2377440" cy="1493520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>IO Media</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cung</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> cap card viettel, mobile, vina</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Port: 8084</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2750820" y="1832610"/>
+          <a:ext cx="1760220" cy="34290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6713220" y="941070"/>
+          <a:ext cx="2491740" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6690360" y="1996440"/>
+          <a:ext cx="2560320" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6720840" y="1965960"/>
+          <a:ext cx="2575560" cy="2099310"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6690360" y="1996440"/>
+          <a:ext cx="2628900" cy="3703320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5577840" y="3040380"/>
+          <a:ext cx="701040" cy="2255520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1004,7 +1816,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1097,7 +1909,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1146,7 +1958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1475,12 +2287,51 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1905,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -2273,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2602,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -2885,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3277,7 +4128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3463,7 +4314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3722,12 +4573,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4029,198 +4883,231 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="B42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>212</v>
       </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>213</v>
       </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>40</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>33</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>212</v>
       </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>213</v>
       </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>88</v>
       </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="60" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>33</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>35</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>212</v>
       </c>
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>213</v>
       </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>145</v>
       </c>
     </row>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="224">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -366,15 +366,6 @@
     <t>/bank-mapping/unlink</t>
   </si>
   <si>
-    <t>card_id</t>
-  </si>
-  <si>
-    <t>202012912012</t>
-  </si>
-  <si>
-    <t>cardid</t>
-  </si>
-  <si>
     <t>3. Lấy danh sách thẻ liên kết</t>
   </si>
   <si>
@@ -711,6 +702,15 @@
   </si>
   <si>
     <t>/bank-name/un-link</t>
+  </si>
+  <si>
+    <t>bankreturncode</t>
+  </si>
+  <si>
+    <t>Neu return-code =1 thi kiem tra tiep bankreturncode</t>
+  </si>
+  <si>
+    <t>/bank-mapping/list</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2985,7 +2985,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,10 +3129,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3144,28 +3144,27 @@
     <col min="6" max="6" width="49.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="11.33203125"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="1024" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
@@ -3188,16 +3187,13 @@
         <v>99</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
@@ -3219,32 +3215,29 @@
       <c r="H6" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -3252,12 +3245,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -3265,7 +3258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -3273,7 +3266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>107</v>
       </c>
@@ -3281,7 +3274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3297,12 +3290,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -3313,115 +3306,140 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
+      <c r="A34" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>115</v>
+      <c r="B39" t="s">
+        <v>111</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
@@ -3429,7 +3447,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
@@ -3437,10 +3455,23 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>63</v>
-      </c>
-      <c r="D41" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3502,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,7 +3512,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3489,10 +3520,10 @@
         <v>51</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -3500,16 +3531,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>500000</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,7 +3550,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,7 +3558,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3611,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3588,7 +3619,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,30 +3669,30 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,7 +3705,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -3682,7 +3713,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,7 +3721,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,7 +3758,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3788,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3767,7 +3798,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,16 +3806,16 @@
         <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,7 +3837,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3828,7 +3859,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -3845,7 +3876,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,7 +3889,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -3871,7 +3902,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,7 +3910,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,7 +3982,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,7 +3990,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,12 +4025,12 @@
         <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,7 +4038,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,7 +4094,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,7 +4145,7 @@
         <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4149,12 +4180,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,18 +4196,18 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,7 +4217,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,7 +4228,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4217,7 +4248,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4257,7 +4288,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,7 +4296,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4368,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,18 +4378,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>50</v>
@@ -4372,16 +4403,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -4392,12 +4423,12 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4409,7 +4440,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>12</v>
@@ -4418,16 +4449,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -4438,7 +4469,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4446,7 +4477,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,7 +4499,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4512,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,7 +4547,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,7 +4555,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,7 +4590,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4580,8 +4611,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4596,12 +4627,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4611,7 +4642,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,7 +4650,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -4633,29 +4664,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4663,51 +4694,51 @@
         <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>49</v>
@@ -4715,7 +4746,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -4729,18 +4760,18 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
@@ -4748,13 +4779,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4762,10 +4793,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,10 +4806,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4786,7 +4817,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4794,7 +4825,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4802,7 +4833,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4837,15 +4868,15 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,7 +4884,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,7 +4892,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -4904,12 +4935,12 @@
         <v>41</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -4918,10 +4949,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,7 +4960,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,7 +4968,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -4945,7 +4976,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -4980,12 +5011,12 @@
         <v>41</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,7 +5024,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,7 +5032,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5009,7 +5040,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5044,12 +5075,12 @@
         <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,7 +5088,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5065,7 +5096,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -5073,7 +5104,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -5108,7 +5139,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -307,410 +307,410 @@
   </si>
   <si>
     <t>Mỗi Phần tử tương ứng bên dưới</t>
+  </si>
+  <si>
+    <t>Xây dựng service cho phép người dùng thực hiện liên kết thẻ, hủy liên kết thẻ, lấy danh sách thẻ đã liên kết</t>
+  </si>
+  <si>
+    <t>BankMapping</t>
+  </si>
+  <si>
+    <t>fulllname</t>
+  </si>
+  <si>
+    <t>bank_token</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>bank_code</t>
+  </si>
+  <si>
+    <t>20200300001</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN A</t>
+  </si>
+  <si>
+    <t>dnfvisdgsbgdkfjvbjdfhbv3w5983475rdkjhgfbsky5478 b38457</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>Ngân hàng hàng hải</t>
+  </si>
+  <si>
+    <t>1. Liên kết thẻ</t>
+  </si>
+  <si>
+    <t>/bank-mapping/link</t>
+  </si>
+  <si>
+    <t>cardno</t>
+  </si>
+  <si>
+    <t>2. Hủy liên kết</t>
+  </si>
+  <si>
+    <t>/bank-mapping/unlink</t>
+  </si>
+  <si>
+    <t>3. Lấy danh sách thẻ liên kết</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>cardname</t>
+  </si>
+  <si>
+    <t>Mỗi phần tử của mảng có thông tin bên dưới</t>
+  </si>
+  <si>
+    <t>Xây dựng service có chức năng ví điện tử số của user</t>
+  </si>
+  <si>
+    <t>Zwallet</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>2020030001</t>
+  </si>
+  <si>
+    <t>3/14/2020 16:00:00</t>
+  </si>
+  <si>
+    <t>202003013131</t>
+  </si>
+  <si>
+    <t>1. addcash</t>
+  </si>
+  <si>
+    <t>/wallet/add-cash</t>
+  </si>
+  <si>
+    <t>2. subtractcash</t>
+  </si>
+  <si>
+    <t>/wallet/subtract-cash</t>
+  </si>
+  <si>
+    <t>3. event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nếu có bất cứ sự thay đổi nào số tiền trong ví của user sẽ tiến hành notify cho người dùng để update lại số tiền hiển thị người dùng  </t>
+  </si>
+  <si>
+    <t>/um/verify-pin</t>
+  </si>
+  <si>
+    <t>1. thành công.
+2. Nhập OTP
+&lt; 1: Thất bại</t>
+  </si>
+  <si>
+    <t>Socket with Pub-sub patten</t>
+  </si>
+  <si>
+    <t>Chanel name</t>
+  </si>
+  <si>
+    <t>UPDATE_WALLET</t>
+  </si>
+  <si>
+    <t>Send data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xây dựng hệ thống cho phép người dùng cash-in/ cash-out </t>
+  </si>
+  <si>
+    <t>BankConfig</t>
+  </si>
+  <si>
+    <t>withdraw_min</t>
+  </si>
+  <si>
+    <t>withdraw_max</t>
+  </si>
+  <si>
+    <t>topup_min</t>
+  </si>
+  <si>
+    <t>topup_max</t>
+  </si>
+  <si>
+    <t>/withdraw/create-order</t>
+  </si>
+  <si>
+    <t>2 Get withdraw status.</t>
+  </si>
+  <si>
+    <t>/withdraw/order-status</t>
+  </si>
+  <si>
+    <t>1. thành công.
+&lt; 1: Thất bại
+&gt; 1: Đang xử lí</t>
+  </si>
+  <si>
+    <t>1. Create order withdraw</t>
+  </si>
+  <si>
+    <t>3. Create order topup</t>
+  </si>
+  <si>
+    <t>/wallet-topup/create-order</t>
+  </si>
+  <si>
+    <t>/wallet-topup/order-status</t>
+  </si>
+  <si>
+    <t>4 Get topup status</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống cho phép người dùng chuyển tiền lẫn nhau</t>
+  </si>
+  <si>
+    <t>1. Create Order</t>
+  </si>
+  <si>
+    <t>/p2p-transfer/create-order</t>
+  </si>
+  <si>
+    <t>2 Get status.</t>
+  </si>
+  <si>
+    <t>Xây dưng hệ thống cho phép user mua card điện thoại</t>
+  </si>
+  <si>
+    <t>MobileCard</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>seri_number</t>
+  </si>
+  <si>
+    <t>card_type</t>
+  </si>
+  <si>
+    <t>9054708000000</t>
+  </si>
+  <si>
+    <t>3984273942734234</t>
+  </si>
+  <si>
+    <t>VINA</t>
+  </si>
+  <si>
+    <t>202030323923223</t>
+  </si>
+  <si>
+    <t>1. Chưa bán
+2. Đã bán</t>
+  </si>
+  <si>
+    <t>/mobile-card/create-order</t>
+  </si>
+  <si>
+    <t>/mobile-card/order-status</t>
+  </si>
+  <si>
+    <t>receiverphone</t>
+  </si>
+  <si>
+    <t>mệnh giá</t>
+  </si>
+  <si>
+    <t>VT|VN|MB</t>
+  </si>
+  <si>
+    <t>4. Verify Pin</t>
+  </si>
+  <si>
+    <t>6. Update tài khoản</t>
+  </si>
+  <si>
+    <t>/um/update</t>
+  </si>
+  <si>
+    <t>202012121</t>
+  </si>
+  <si>
+    <t>WithdrawOrder</t>
+  </si>
+  <si>
+    <t>TopupOrder</t>
+  </si>
+  <si>
+    <t>P2POrder</t>
+  </si>
+  <si>
+    <t>0368778238</t>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+  </si>
+  <si>
+    <t>MobileCardOrder</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>091209121</t>
+  </si>
+  <si>
+    <t>4. Get balance</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>/wallet/get-balance</t>
+  </si>
+  <si>
+    <t>Hỗ trợ ngân hàng MSB, VietTin, Sacombank</t>
+  </si>
+  <si>
+    <t>Xây dựng ngân hàng liên kết với ví điện tử</t>
+  </si>
+  <si>
+    <t>1 pay.</t>
+  </si>
+  <si>
+    <t>thanh toán đơn hàng</t>
+  </si>
+  <si>
+    <t>/bank-name/pay</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>31121824242342</t>
+  </si>
+  <si>
+    <t>843748374</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>BankCard</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>9407342342424</t>
+  </si>
+  <si>
+    <t>21/3/2020</t>
+  </si>
+  <si>
+    <t>WalletMapping</t>
+  </si>
+  <si>
+    <t>mapping_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekjfnienv5eu8ctfny 34987y8we7y5478 </t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ATM|MASTER|VISA</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>1: Linkled, 2: unlinked</t>
+  </si>
+  <si>
+    <t>94078143434348945</t>
+  </si>
+  <si>
+    <t>banktoken</t>
+  </si>
+  <si>
+    <t>cardnumber</t>
+  </si>
+  <si>
+    <t>2. link</t>
+  </si>
+  <si>
+    <t>liết kết thẻ ngân hàng vào ví</t>
+  </si>
+  <si>
+    <t>/bank-name/link</t>
+  </si>
+  <si>
+    <t>3. un link</t>
+  </si>
+  <si>
+    <t>hủy liên kết ngân hàng khỏi ví</t>
+  </si>
+  <si>
+    <t>4. cash-in</t>
+  </si>
+  <si>
+    <t>5. cash-out</t>
+  </si>
+  <si>
+    <t>/bank-name/cash-in</t>
+  </si>
+  <si>
+    <t>/bank-name/cash-out</t>
+  </si>
+  <si>
+    <t>/bank-name/un-link</t>
+  </si>
+  <si>
+    <t>bankreturncode</t>
+  </si>
+  <si>
+    <t>Neu return-code =1 thi kiem tra tiep bankreturncode</t>
+  </si>
+  <si>
+    <t>/bank-mapping/list</t>
   </si>
   <si>
     <t>1. Rút tiền
 2. Nạp tiền
 3. Chuyển tiền
-4. Điện
-5. Nước
-6. Internet
-7. Mobile Card.</t>
-  </si>
-  <si>
-    <t>Xây dựng service cho phép người dùng thực hiện liên kết thẻ, hủy liên kết thẻ, lấy danh sách thẻ đã liên kết</t>
-  </si>
-  <si>
-    <t>BankMapping</t>
-  </si>
-  <si>
-    <t>fulllname</t>
-  </si>
-  <si>
-    <t>bank_token</t>
-  </si>
-  <si>
-    <t>card_name</t>
-  </si>
-  <si>
-    <t>bank_code</t>
-  </si>
-  <si>
-    <t>20200300001</t>
-  </si>
-  <si>
-    <t>NGUYEN VAN A</t>
-  </si>
-  <si>
-    <t>dnfvisdgsbgdkfjvbjdfhbv3w5983475rdkjhgfbsky5478 b38457</t>
-  </si>
-  <si>
-    <t>MSB</t>
-  </si>
-  <si>
-    <t>Ngân hàng hàng hải</t>
-  </si>
-  <si>
-    <t>1. Liên kết thẻ</t>
-  </si>
-  <si>
-    <t>/bank-mapping/link</t>
-  </si>
-  <si>
-    <t>cardno</t>
-  </si>
-  <si>
-    <t>2. Hủy liên kết</t>
-  </si>
-  <si>
-    <t>/bank-mapping/unlink</t>
-  </si>
-  <si>
-    <t>3. Lấy danh sách thẻ liên kết</t>
-  </si>
-  <si>
-    <t>cards</t>
-  </si>
-  <si>
-    <t>cardname</t>
-  </si>
-  <si>
-    <t>Mỗi phần tử của mảng có thông tin bên dưới</t>
-  </si>
-  <si>
-    <t>Xây dựng service có chức năng ví điện tử số của user</t>
-  </si>
-  <si>
-    <t>Zwallet</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>updateDate</t>
-  </si>
-  <si>
-    <t>2020030001</t>
-  </si>
-  <si>
-    <t>3/14/2020 16:00:00</t>
-  </si>
-  <si>
-    <t>202003013131</t>
-  </si>
-  <si>
-    <t>1. addcash</t>
-  </si>
-  <si>
-    <t>/wallet/add-cash</t>
-  </si>
-  <si>
-    <t>2. subtractcash</t>
-  </si>
-  <si>
-    <t>/wallet/subtract-cash</t>
-  </si>
-  <si>
-    <t>3. event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nếu có bất cứ sự thay đổi nào số tiền trong ví của user sẽ tiến hành notify cho người dùng để update lại số tiền hiển thị người dùng  </t>
-  </si>
-  <si>
-    <t>/um/verify-pin</t>
-  </si>
-  <si>
-    <t>1. thành công.
-2. Nhập OTP
-&lt; 1: Thất bại</t>
-  </si>
-  <si>
-    <t>Socket with Pub-sub patten</t>
-  </si>
-  <si>
-    <t>Chanel name</t>
-  </si>
-  <si>
-    <t>UPDATE_WALLET</t>
-  </si>
-  <si>
-    <t>Send data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xây dựng hệ thống cho phép người dùng cash-in/ cash-out </t>
-  </si>
-  <si>
-    <t>BankConfig</t>
-  </si>
-  <si>
-    <t>withdraw_min</t>
-  </si>
-  <si>
-    <t>withdraw_max</t>
-  </si>
-  <si>
-    <t>topup_min</t>
-  </si>
-  <si>
-    <t>topup_max</t>
-  </si>
-  <si>
-    <t>/withdraw/create-order</t>
-  </si>
-  <si>
-    <t>2 Get withdraw status.</t>
-  </si>
-  <si>
-    <t>/withdraw/order-status</t>
-  </si>
-  <si>
-    <t>1. thành công.
-&lt; 1: Thất bại
-&gt; 1: Đang xử lí</t>
-  </si>
-  <si>
-    <t>1. Create order withdraw</t>
-  </si>
-  <si>
-    <t>3. Create order topup</t>
-  </si>
-  <si>
-    <t>/wallet-topup/create-order</t>
-  </si>
-  <si>
-    <t>/wallet-topup/order-status</t>
-  </si>
-  <si>
-    <t>4 Get topup status</t>
-  </si>
-  <si>
-    <t>Xây dựng hệ thống cho phép người dùng chuyển tiền lẫn nhau</t>
-  </si>
-  <si>
-    <t>1. Create Order</t>
-  </si>
-  <si>
-    <t>/p2p-transfer/create-order</t>
-  </si>
-  <si>
-    <t>2 Get status.</t>
-  </si>
-  <si>
-    <t>Xây dưng hệ thống cho phép user mua card điện thoại</t>
-  </si>
-  <si>
-    <t>MobileCard</t>
-  </si>
-  <si>
-    <t>card_number</t>
-  </si>
-  <si>
-    <t>seri_number</t>
-  </si>
-  <si>
-    <t>card_type</t>
-  </si>
-  <si>
-    <t>9054708000000</t>
-  </si>
-  <si>
-    <t>3984273942734234</t>
-  </si>
-  <si>
-    <t>VINA</t>
-  </si>
-  <si>
-    <t>202030323923223</t>
-  </si>
-  <si>
-    <t>1. Chưa bán
-2. Đã bán</t>
-  </si>
-  <si>
-    <t>/mobile-card/create-order</t>
-  </si>
-  <si>
-    <t>/mobile-card/order-status</t>
-  </si>
-  <si>
-    <t>receiverphone</t>
-  </si>
-  <si>
-    <t>mệnh giá</t>
-  </si>
-  <si>
-    <t>VT|VN|MB</t>
-  </si>
-  <si>
-    <t>4. Verify Pin</t>
-  </si>
-  <si>
-    <t>6. Update tài khoản</t>
-  </si>
-  <si>
-    <t>/um/update</t>
-  </si>
-  <si>
-    <t>202012121</t>
-  </si>
-  <si>
-    <t>WithdrawOrder</t>
-  </si>
-  <si>
-    <t>TopupOrder</t>
-  </si>
-  <si>
-    <t>P2POrder</t>
-  </si>
-  <si>
-    <t>0368778238</t>
-  </si>
-  <si>
-    <t>receiver_phone</t>
-  </si>
-  <si>
-    <t>MobileCardOrder</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>091209121</t>
-  </si>
-  <si>
-    <t>4. Get balance</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>/wallet/get-balance</t>
-  </si>
-  <si>
-    <t>Hỗ trợ ngân hàng MSB, VietTin, Sacombank</t>
-  </si>
-  <si>
-    <t>Xây dựng ngân hàng liên kết với ví điện tử</t>
-  </si>
-  <si>
-    <t>1 pay.</t>
-  </si>
-  <si>
-    <t>thanh toán đơn hàng</t>
-  </si>
-  <si>
-    <t>/bank-name/pay</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>sdt</t>
-  </si>
-  <si>
-    <t>31121824242342</t>
-  </si>
-  <si>
-    <t>843748374</t>
-  </si>
-  <si>
-    <t>Nguyen Van A</t>
-  </si>
-  <si>
-    <t>XXXX</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>BankCard</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>9407342342424</t>
-  </si>
-  <si>
-    <t>21/3/2020</t>
-  </si>
-  <si>
-    <t>WalletMapping</t>
-  </si>
-  <si>
-    <t>mapping_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekjfnienv5eu8ctfny 34987y8we7y5478 </t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>ATM|MASTER|VISA</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>update_date</t>
-  </si>
-  <si>
-    <t>1: Linkled, 2: unlinked</t>
-  </si>
-  <si>
-    <t>94078143434348945</t>
-  </si>
-  <si>
-    <t>banktoken</t>
-  </si>
-  <si>
-    <t>cardnumber</t>
-  </si>
-  <si>
-    <t>2. link</t>
-  </si>
-  <si>
-    <t>liết kết thẻ ngân hàng vào ví</t>
-  </si>
-  <si>
-    <t>/bank-name/link</t>
-  </si>
-  <si>
-    <t>3. un link</t>
-  </si>
-  <si>
-    <t>hủy liên kết ngân hàng khỏi ví</t>
-  </si>
-  <si>
-    <t>4. cash-in</t>
-  </si>
-  <si>
-    <t>5. cash-out</t>
-  </si>
-  <si>
-    <t>/bank-name/cash-in</t>
-  </si>
-  <si>
-    <t>/bank-name/cash-out</t>
-  </si>
-  <si>
-    <t>/bank-name/un-link</t>
-  </si>
-  <si>
-    <t>bankreturncode</t>
-  </si>
-  <si>
-    <t>Neu return-code =1 thi kiem tra tiep bankreturncode</t>
-  </si>
-  <si>
-    <t>/bank-mapping/list</t>
+4. Mobile Card.</t>
+  </si>
+  <si>
+    <t>Neu thanh toan bang the ATM thi kiem tra</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2339,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:C68"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2850,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>79</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2879,7 +2882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>59</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>61</v>
       </c>
@@ -2928,7 +2931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>70</v>
       </c>
@@ -2972,12 +2975,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -2985,98 +2988,110 @@
         <v>41</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
       <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>87</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
@@ -3084,23 +3099,23 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -3108,9 +3123,17 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3131,8 +3154,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3151,7 +3174,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3184,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3169,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>62</v>
@@ -3178,27 +3201,27 @@
         <v>63</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="12">
         <v>940781</v>
@@ -3207,24 +3230,24 @@
         <v>8945</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,7 +3257,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3242,7 +3265,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3268,7 +3291,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -3308,7 +3331,7 @@
     </row>
     <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3319,7 +3342,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,7 +3355,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,12 +3411,12 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -3404,7 +3427,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3412,7 +3435,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,7 +3454,7 @@
         <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,7 +3462,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
@@ -3455,7 +3478,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
@@ -3486,10 +3509,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3502,7 +3528,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3538,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,10 +3546,10 @@
         <v>51</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -3531,16 +3557,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7">
         <v>500000</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,7 +3576,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3558,7 +3584,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,7 +3637,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,30 +3695,30 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
         <v>130</v>
-      </c>
-      <c r="B35" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,7 +3731,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -3713,7 +3739,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,7 +3747,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,7 +3784,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3798,7 +3824,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,21 +3832,21 @@
         <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>100000</v>
@@ -3837,7 +3863,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,7 +3885,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -3871,12 +3897,12 @@
         <v>200000</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,7 +3915,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -3902,7 +3928,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,7 +3936,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3982,7 +4008,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,7 +4016,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,12 +4051,12 @@
         <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4038,7 +4064,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4094,7 +4120,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,7 +4128,7 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,7 +4171,7 @@
         <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4180,12 +4206,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4196,18 +4222,18 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,7 +4243,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,7 +4254,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4248,7 +4274,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4288,7 +4314,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,7 +4322,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4394,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4378,18 +4404,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>50</v>
@@ -4403,16 +4429,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -4423,12 +4449,12 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4440,7 +4466,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>12</v>
@@ -4449,16 +4475,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -4469,7 +4495,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4477,7 +4503,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4499,7 +4525,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4512,13 +4538,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,7 +4573,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4555,7 +4581,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,7 +4616,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4627,12 +4653,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,7 +4668,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4650,7 +4676,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -4664,29 +4690,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" t="s">
         <v>190</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>191</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,51 +4720,51 @@
         <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>49</v>
@@ -4746,7 +4772,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -4760,18 +4786,18 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
@@ -4779,13 +4805,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4793,10 +4819,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4806,10 +4832,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
         <v>184</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4817,7 +4843,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,7 +4851,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4833,7 +4859,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4868,15 +4894,15 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" t="s">
         <v>211</v>
-      </c>
-      <c r="B33" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,7 +4910,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,7 +4918,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -4935,12 +4961,12 @@
         <v>41</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -4949,10 +4975,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
         <v>214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,7 +4986,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,7 +4994,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -4976,7 +5002,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -5011,12 +5037,12 @@
         <v>41</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,7 +5050,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5032,7 +5058,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5040,7 +5066,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5075,12 +5101,12 @@
         <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,7 +5114,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,7 +5122,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -5104,7 +5130,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -5139,7 +5165,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -18,16 +18,11 @@
     <sheet name="bank" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="225">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -2763,8 +2758,8 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3798,10 +3793,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4080,63 +4075,63 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>146</v>
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -4144,33 +4139,25 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="59" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>40</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C59" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>141</v>
       </c>
     </row>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="227">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>TopupOrder</t>
-  </si>
-  <si>
-    <t>P2POrder</t>
   </si>
   <si>
     <t>0368778238</t>
@@ -706,6 +703,15 @@
   </si>
   <si>
     <t>Neu thanh toan bang the ATM thi kiem tra</t>
+  </si>
+  <si>
+    <t>/p2p-transfer/order-status</t>
+  </si>
+  <si>
+    <t>money_transfer_order</t>
+  </si>
+  <si>
+    <t>serinumber</t>
   </si>
 </sst>
 </file>
@@ -2856,7 +2862,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,14 +2994,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,12 +3243,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3326,7 +3332,7 @@
     </row>
     <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3406,12 +3412,12 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -3430,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3740,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,7 +3748,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,7 +3785,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3795,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4179,8 +4185,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4204,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,7 +4215,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,7 +4226,7 @@
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,7 +4315,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,12 +4355,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4363,10 +4369,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D31"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4468,10 +4474,10 @@
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -4604,6 +4610,22 @@
       </c>
       <c r="D31" s="5" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4640,12 +4662,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4655,7 +4677,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4663,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -4677,29 +4699,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" t="s">
         <v>189</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>190</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4710,37 +4732,37 @@
         <v>153</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4751,7 +4773,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>49</v>
@@ -4759,7 +4781,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -4773,7 +4795,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4784,7 +4806,7 @@
         <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
@@ -4792,13 +4814,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4806,10 +4828,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4819,10 +4841,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s">
         <v>183</v>
-      </c>
-      <c r="B23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4830,7 +4852,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4838,7 +4860,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4846,7 +4868,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4886,10 +4908,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
         <v>210</v>
-      </c>
-      <c r="B33" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,7 +4919,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,7 +4927,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -4953,7 +4975,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -4962,10 +4984,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" t="s">
         <v>213</v>
-      </c>
-      <c r="B44" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,7 +4995,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,7 +5003,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -4989,7 +5011,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -5029,7 +5051,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5037,7 +5059,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5045,7 +5067,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5053,7 +5075,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5093,7 +5115,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,7 +5123,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,7 +5131,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -5117,7 +5139,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="227">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -2762,10 +2762,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2976,147 +2976,142 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>219</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
@@ -3124,17 +3119,33 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>90</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4185,7 +4196,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="228">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -525,16 +525,10 @@
     <t>mệnh giá</t>
   </si>
   <si>
-    <t>VT|VN|MB</t>
-  </si>
-  <si>
     <t>4. Verify Pin</t>
   </si>
   <si>
     <t>6. Update tài khoản</t>
-  </si>
-  <si>
-    <t>/um/update</t>
   </si>
   <si>
     <t>202012121</t>
@@ -712,6 +706,15 @@
   </si>
   <si>
     <t>serinumber</t>
+  </si>
+  <si>
+    <t>VT|VINA|MB</t>
+  </si>
+  <si>
+    <t>cardtype</t>
+  </si>
+  <si>
+    <t>/um/update-user</t>
   </si>
 </sst>
 </file>
@@ -2339,9 +2342,7 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2625,7 +2626,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2674,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,7 +2682,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2765,7 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -2862,7 +2863,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2984,7 +2985,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,14 +3006,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3343,7 +3344,7 @@
     </row>
     <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3423,12 +3424,12 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -3447,7 +3448,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,7 +3528,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3752,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,7 +3760,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,7 +3797,7 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,7 +3898,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -3914,7 +3915,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3927,7 +3928,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -4197,7 +4198,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B11" sqref="B11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,18 +4227,18 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,7 +4327,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,7 +4384,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4459,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4479,16 +4480,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -4542,13 +4543,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4625,7 +4626,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -4633,7 +4634,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -4641,12 +4642,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4673,12 +4674,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4688,7 +4689,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,7 +4697,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -4710,29 +4711,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" t="s">
         <v>188</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="E7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4743,37 +4744,37 @@
         <v>153</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,7 +4785,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>49</v>
@@ -4792,7 +4793,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4817,7 +4818,7 @@
         <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
@@ -4825,13 +4826,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4839,10 +4840,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4852,10 +4853,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,7 +4864,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4871,7 +4872,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4879,7 +4880,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4919,10 +4920,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,7 +4931,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,7 +4939,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -4986,7 +4987,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -4995,10 +4996,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5006,7 +5007,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,7 +5015,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -5022,7 +5023,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -5062,7 +5063,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5071,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,7 +5079,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5126,7 +5127,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,7 +5135,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5142,7 +5143,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -5150,7 +5151,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="232">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -715,6 +715,18 @@
   </si>
   <si>
     <t>/um/update-user</t>
+  </si>
+  <si>
+    <t>4. Lấy danh sách ngân hàng mà ví hỗ trợ</t>
+  </si>
+  <si>
+    <t>/bank-mapping/support-bank</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>bankname</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2354,9 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3165,10 +3179,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3462,14 +3476,6 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
@@ -3478,7 +3484,10 @@
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,6 +3517,60 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4658,8 +4721,8 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="236">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -415,12 +415,6 @@
   </si>
   <si>
     <t>Chanel name</t>
-  </si>
-  <si>
-    <t>UPDATE_WALLET</t>
-  </si>
-  <si>
-    <t>Send data</t>
   </si>
   <si>
     <t xml:space="preserve">Xây dựng hệ thống cho phép người dùng cash-in/ cash-out </t>
@@ -727,6 +721,24 @@
   </si>
   <si>
     <t>bankname</t>
+  </si>
+  <si>
+    <t>/ws/topic/updated_wallet</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>/ws-stomp</t>
+  </si>
+  <si>
+    <t>{"userid":"1584784717714","balance":91159792}</t>
+  </si>
+  <si>
+    <t>Receive data</t>
+  </si>
+  <si>
+    <t>Sample Receive Data</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2652,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,7 +2700,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2696,7 +2708,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +2889,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,7 +3011,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3020,14 +3032,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3181,7 +3193,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -3240,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3269,12 +3281,12 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,7 +3370,7 @@
     </row>
     <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3438,12 +3450,12 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -3462,7 +3474,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3521,7 +3533,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,7 +3560,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
         <v>87</v>
@@ -3567,7 +3579,7 @@
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
@@ -3588,16 +3600,16 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
@@ -3779,88 +3791,104 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="50" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C47" t="s">
-        <v>176</v>
+      <c r="C51" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3890,7 +3918,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,7 +3928,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3908,16 +3936,16 @@
         <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,7 +3967,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,7 +3989,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11">
         <v>561278</v>
@@ -3978,7 +4006,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3991,7 +4019,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15">
         <v>200000</v>
@@ -4004,7 +4032,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,7 +4040,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,7 +4112,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,7 +4120,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4127,12 +4155,12 @@
         <v>41</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4168,7 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,7 +4216,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,7 +4224,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,7 +4267,7 @@
         <v>41</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4274,12 +4302,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4290,18 +4318,18 @@
         <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>200000</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4311,7 +4339,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4322,7 +4350,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -4342,7 +4370,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4382,7 +4410,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4390,7 +4418,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,7 +4453,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4490,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4472,18 +4500,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>50</v>
@@ -4497,16 +4525,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -4517,12 +4545,12 @@
     </row>
     <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="F7" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4534,7 +4562,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>12</v>
@@ -4543,16 +4571,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>200000</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -4563,7 +4591,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,7 +4599,7 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,7 +4621,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4634,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,7 +4669,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,7 +4677,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,12 +4712,12 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -4697,7 +4725,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -4737,12 +4765,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,7 +4780,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,7 +4788,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -4774,29 +4802,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" t="s">
         <v>186</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="E7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,51 +4832,51 @@
         <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>49</v>
@@ -4856,7 +4884,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>100000</v>
@@ -4870,18 +4898,18 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>14</v>
@@ -4889,13 +4917,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4903,10 +4931,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4916,10 +4944,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,7 +4955,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,7 +4963,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4943,7 +4971,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4978,15 +5006,15 @@
         <v>41</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4994,7 +5022,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5002,7 +5030,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -5045,12 +5073,12 @@
         <v>41</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -5059,10 +5087,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5098,7 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,7 +5106,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -5086,7 +5114,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -5121,12 +5149,12 @@
         <v>41</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,7 +5162,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5142,7 +5170,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -5150,7 +5178,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -5185,12 +5213,12 @@
         <v>41</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,7 +5226,7 @@
         <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,7 +5234,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -5214,7 +5242,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
@@ -5249,7 +5277,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/docs/feature-design.xlsx
+++ b/docs/feature-design.xlsx
@@ -4,25 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="9" r:id="rId1"/>
-    <sheet name="user-mng" sheetId="1" r:id="rId2"/>
-    <sheet name="charge-order" sheetId="2" r:id="rId3"/>
-    <sheet name="bank-mapping" sheetId="3" r:id="rId4"/>
-    <sheet name="wallet" sheetId="7" r:id="rId5"/>
-    <sheet name="cash-in cash-out" sheetId="4" r:id="rId6"/>
-    <sheet name="money-transfer" sheetId="5" r:id="rId7"/>
-    <sheet name="mobile-card" sheetId="6" r:id="rId8"/>
-    <sheet name="bank" sheetId="8" r:id="rId9"/>
+    <sheet name="Upload&amp;Download File" sheetId="10" r:id="rId2"/>
+    <sheet name="user-mng" sheetId="1" r:id="rId3"/>
+    <sheet name="charge-order" sheetId="2" r:id="rId4"/>
+    <sheet name="bank-mapping" sheetId="3" r:id="rId5"/>
+    <sheet name="wallet" sheetId="7" r:id="rId6"/>
+    <sheet name="cash-in cash-out" sheetId="4" r:id="rId7"/>
+    <sheet name="money-transfer" sheetId="5" r:id="rId8"/>
+    <sheet name="mobile-card" sheetId="6" r:id="rId9"/>
+    <sheet name="Notify" sheetId="12" r:id="rId10"/>
+    <sheet name="bank" sheetId="8" r:id="rId11"/>
+    <sheet name="Admin" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="290">
   <si>
     <t>Xây dựng 1 service  quản lí người dùng:</t>
   </si>
@@ -739,13 +742,175 @@
   </si>
   <si>
     <t>Sample Receive Data</t>
+  </si>
+  <si>
+    <t>cmndfontimg</t>
+  </si>
+  <si>
+    <t>cmndbackimg</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>mã file được trả về lúc upload CMND</t>
+  </si>
+  <si>
+    <t>Mã file được trả về lúc upload avatar</t>
+  </si>
+  <si>
+    <t>Cho phép upload/download/view image</t>
+  </si>
+  <si>
+    <t>1 Upload file</t>
+  </si>
+  <si>
+    <t>/files/upload-file</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>MultipartFile</t>
+  </si>
+  <si>
+    <t>2 Download File</t>
+  </si>
+  <si>
+    <t>/files/download/</t>
+  </si>
+  <si>
+    <t>fileid</t>
+  </si>
+  <si>
+    <t>File as stream of byte</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>3 View Image File</t>
+  </si>
+  <si>
+    <t>/files/view-image/</t>
+  </si>
+  <si>
+    <t>File as stream of byte with type image</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/files/view-image/1a437f08-b0b1-43b5-8c37-d3390201b845</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/files/download/65a31b9a-503f-4d21-9d13-c2bf710fff09</t>
+  </si>
+  <si>
+    <t>Xây dụng chức năng thông báo người sử dụng</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>unlink</t>
+  </si>
+  <si>
+    <t>nhan tien</t>
+  </si>
+  <si>
+    <t>user verified/ rejected</t>
+  </si>
+  <si>
+    <t>Liên kết tài khoản ATM</t>
+  </si>
+  <si>
+    <t>Hủy liên kết tài khoản ATM</t>
+  </si>
+  <si>
+    <t>Nhận tiền ( người nhận sẽ nhận được notify)</t>
+  </si>
+  <si>
+    <t>Thông báo việc định danh tài khoản</t>
+  </si>
+  <si>
+    <t>TOPIC:</t>
+  </si>
+  <si>
+    <t>/ws/topic/notify_&lt;user_id&gt;</t>
+  </si>
+  <si>
+    <t>1. Event</t>
+  </si>
+  <si>
+    <t>Sẽ thông báo khi:</t>
+  </si>
+  <si>
+    <t>2. Lấy lịch sử thông báo</t>
+  </si>
+  <si>
+    <t>/notify/history</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu lấy dữ liệu</t>
+  </si>
+  <si>
+    <t>notifyId</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timemilliseconds</t>
+  </si>
+  <si>
+    <t>1. Not Read, 2. Seen, 3. Deleted</t>
+  </si>
+  <si>
+    <t>3. Cập nhật notify</t>
+  </si>
+  <si>
+    <t>Quản lí user</t>
+  </si>
+  <si>
+    <t>1 Seach user có trong hệ thống</t>
+  </si>
+  <si>
+    <t>/admin/user/list</t>
+  </si>
+  <si>
+    <t>Các thông tin trong request sẽ search theo điều kiện AND</t>
+  </si>
+  <si>
+    <t>Xem API trong postman forlder named : admin -&gt; user</t>
+  </si>
+  <si>
+    <t>2. Verify Tài khoản user</t>
+  </si>
+  <si>
+    <t>/admin/user/verify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,6 +952,32 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -832,10 +1023,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,8 +1051,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2348,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2359,15 +2556,1015 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A32" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>43911</v>
+      </c>
+      <c r="E15">
+        <v>98742985472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A21" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A30" sqref="A30:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2722,54 +3919,87 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>15</v>
       </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="72" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2784,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3186,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3595,15 +4825,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3897,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4281,7 +5511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4467,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4475,7 +5705,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B33"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4740,548 +5970,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="18">
-        <v>43911</v>
-      </c>
-      <c r="E15">
-        <v>98742985472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>